--- a/Assessment/Experiment2/result.xlsx
+++ b/Assessment/Experiment2/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54E8895-BAF3-4DD8-AB92-7E2FCC45B1B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C11B0-A9A0-4FCF-902D-414D666A123B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="136">
   <si>
     <t>top1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,13 +501,21 @@
   </si>
   <si>
     <t>setReferrer</t>
+  </si>
+  <si>
+    <t>combination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +525,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -543,9 +560,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -826,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="M11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -838,7 +856,7 @@
     <col min="2" max="2" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -857,8 +875,11 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -877,8 +898,11 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -894,8 +918,11 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -911,8 +938,11 @@
       <c r="J4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -928,8 +958,11 @@
       <c r="J5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -948,8 +981,11 @@
       <c r="J6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -965,8 +1001,11 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -982,8 +1021,11 @@
       <c r="J8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1002,8 +1044,11 @@
       <c r="J9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1019,8 +1064,11 @@
       <c r="J10">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1036,8 +1084,11 @@
       <c r="J11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1053,8 +1104,11 @@
       <c r="J12">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1070,8 +1124,11 @@
       <c r="J13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1087,8 +1144,11 @@
       <c r="J14">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1107,8 +1167,11 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1124,8 +1187,11 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1141,8 +1207,11 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1161,8 +1230,11 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1181,8 +1253,11 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1201,8 +1276,11 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1218,8 +1296,11 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1316,11 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1255,8 +1339,11 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1275,8 +1362,11 @@
       <c r="J24">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -1292,8 +1382,11 @@
       <c r="J25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>31</v>
       </c>
@@ -1312,8 +1405,11 @@
       <c r="J26">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -1329,8 +1425,11 @@
       <c r="J27">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1349,8 +1448,11 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -1366,8 +1468,11 @@
       <c r="J29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1386,8 +1491,11 @@
       <c r="J30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1406,8 +1514,11 @@
       <c r="J31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>12</v>
       </c>
@@ -1423,8 +1534,11 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K32">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>13</v>
       </c>
@@ -1440,8 +1554,11 @@
       <c r="J33">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -1460,8 +1577,11 @@
       <c r="J34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>12</v>
       </c>
@@ -1477,8 +1597,11 @@
       <c r="J35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -1494,8 +1617,11 @@
       <c r="J36">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1514,8 +1640,11 @@
       <c r="J37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>12</v>
       </c>
@@ -1531,8 +1660,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1551,8 +1683,11 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>12</v>
       </c>
@@ -1568,8 +1703,11 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1588,8 +1726,11 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>12</v>
       </c>
@@ -1605,8 +1746,11 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -1622,8 +1766,11 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1642,8 +1789,11 @@
       <c r="J44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>46</v>
       </c>
@@ -1659,8 +1809,11 @@
       <c r="J45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>47</v>
       </c>
@@ -1676,8 +1829,11 @@
       <c r="J46">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>48</v>
       </c>
@@ -1693,8 +1849,11 @@
       <c r="J47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1713,8 +1872,11 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>50</v>
       </c>
@@ -1730,8 +1892,11 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1750,8 +1915,11 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>53</v>
       </c>
@@ -1767,8 +1935,11 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1787,8 +1958,11 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K52">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>12</v>
       </c>
@@ -1804,8 +1978,11 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>9</v>
       </c>
@@ -1821,8 +1998,11 @@
       <c r="J54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K54">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>10</v>
       </c>
@@ -1838,8 +2018,11 @@
       <c r="J55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1858,8 +2041,11 @@
       <c r="J56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K56">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>12</v>
       </c>
@@ -1875,8 +2061,11 @@
       <c r="J57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>13</v>
       </c>
@@ -1892,8 +2081,11 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1912,8 +2104,11 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K59">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>12</v>
       </c>
@@ -1929,8 +2124,11 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>9</v>
       </c>
@@ -1946,8 +2144,11 @@
       <c r="J61">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>10</v>
       </c>
@@ -1963,8 +2164,11 @@
       <c r="J62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K62">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -1983,8 +2187,11 @@
       <c r="J63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K63">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>12</v>
       </c>
@@ -2000,8 +2207,11 @@
       <c r="J64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>13</v>
       </c>
@@ -2017,8 +2227,11 @@
       <c r="J65">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>58</v>
       </c>
@@ -2037,8 +2250,11 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K66">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>12</v>
       </c>
@@ -2054,8 +2270,11 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K67">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>9</v>
       </c>
@@ -2071,8 +2290,11 @@
       <c r="J68">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>10</v>
       </c>
@@ -2088,16 +2310,16 @@
       <c r="J69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>59</v>
       </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2116,8 +2338,11 @@
       <c r="J71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>62</v>
       </c>
@@ -2133,8 +2358,11 @@
       <c r="J72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>63</v>
       </c>
@@ -2153,8 +2381,11 @@
       <c r="J73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -2170,8 +2401,11 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>66</v>
       </c>
@@ -2187,8 +2421,11 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>67</v>
       </c>
@@ -2204,8 +2441,11 @@
       <c r="J76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>68</v>
       </c>
@@ -2224,8 +2464,11 @@
       <c r="J77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K77">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>12</v>
       </c>
@@ -2241,8 +2484,11 @@
       <c r="J78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>13</v>
       </c>
@@ -2258,8 +2504,11 @@
       <c r="J79">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>69</v>
       </c>
@@ -2278,8 +2527,11 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -2298,8 +2550,11 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>73</v>
       </c>
@@ -2315,8 +2570,11 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K82">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>74</v>
       </c>
@@ -2332,8 +2590,11 @@
       <c r="J83">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K83">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>75</v>
       </c>
@@ -2349,8 +2610,11 @@
       <c r="J84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K84">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>76</v>
       </c>
@@ -2369,8 +2633,11 @@
       <c r="J85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K85">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>12</v>
       </c>
@@ -2386,8 +2653,11 @@
       <c r="J86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>77</v>
       </c>
@@ -2406,8 +2676,11 @@
       <c r="J87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K87">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>12</v>
       </c>
@@ -2423,8 +2696,11 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K88">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>9</v>
       </c>
@@ -2440,8 +2716,11 @@
       <c r="J89">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>10</v>
       </c>
@@ -2457,8 +2736,11 @@
       <c r="J90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K90">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -2477,8 +2759,11 @@
       <c r="J91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K91">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>73</v>
       </c>
@@ -2494,8 +2779,11 @@
       <c r="J92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K92">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>74</v>
       </c>
@@ -2511,8 +2799,11 @@
       <c r="J93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K93">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>10</v>
       </c>
@@ -2528,8 +2819,11 @@
       <c r="J94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K94">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -2548,8 +2842,11 @@
       <c r="J95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K95">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>12</v>
       </c>
@@ -2565,8 +2862,11 @@
       <c r="J96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>80</v>
       </c>
@@ -2585,8 +2885,11 @@
       <c r="J97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>12</v>
       </c>
@@ -2602,8 +2905,11 @@
       <c r="J98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>13</v>
       </c>
@@ -2619,8 +2925,11 @@
       <c r="J99">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -2639,8 +2948,11 @@
       <c r="J100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K100">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>12</v>
       </c>
@@ -2656,8 +2968,11 @@
       <c r="J101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>13</v>
       </c>
@@ -2673,8 +2988,11 @@
       <c r="J102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -2693,8 +3011,11 @@
       <c r="J103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K103">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>12</v>
       </c>
@@ -2710,8 +3031,11 @@
       <c r="J104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K104">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>74</v>
       </c>
@@ -2727,8 +3051,11 @@
       <c r="J105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K105">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>75</v>
       </c>
@@ -2744,8 +3071,11 @@
       <c r="J106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K106">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>83</v>
       </c>
@@ -2761,8 +3091,11 @@
       <c r="J107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K107">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -2781,8 +3114,11 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K108">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
         <v>12</v>
       </c>
@@ -2798,8 +3134,11 @@
       <c r="J109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K109">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>85</v>
       </c>
@@ -2818,8 +3157,11 @@
       <c r="J110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K110">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
         <v>73</v>
       </c>
@@ -2835,8 +3177,11 @@
       <c r="J111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>86</v>
       </c>
@@ -2855,8 +3200,11 @@
       <c r="J112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K112">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>12</v>
       </c>
@@ -2872,8 +3220,11 @@
       <c r="J113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>13</v>
       </c>
@@ -2889,8 +3240,11 @@
       <c r="J114">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>87</v>
       </c>
@@ -2909,8 +3263,11 @@
       <c r="J115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K115">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>89</v>
       </c>
@@ -2929,8 +3286,11 @@
       <c r="J116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K116">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>12</v>
       </c>
@@ -2946,8 +3306,11 @@
       <c r="J117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K117">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>90</v>
       </c>
@@ -2966,8 +3329,11 @@
       <c r="J118">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>92</v>
       </c>
@@ -2986,8 +3352,11 @@
       <c r="J119">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K119">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>94</v>
       </c>
@@ -3003,8 +3372,11 @@
       <c r="J120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>95</v>
       </c>
@@ -3020,8 +3392,11 @@
       <c r="J121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -3040,8 +3415,11 @@
       <c r="J122">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K122">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>97</v>
       </c>
@@ -3057,8 +3435,11 @@
       <c r="J123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -3077,8 +3458,11 @@
       <c r="J124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>93</v>
       </c>
@@ -3094,8 +3478,11 @@
       <c r="J125">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K125">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>100</v>
       </c>
@@ -3114,8 +3501,11 @@
       <c r="J126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>102</v>
       </c>
@@ -3131,8 +3521,11 @@
       <c r="J127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -3151,8 +3544,11 @@
       <c r="J128">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K128">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>105</v>
       </c>
@@ -3168,13 +3564,16 @@
       <c r="J129">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K129">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>107</v>
       </c>
@@ -3193,8 +3592,11 @@
       <c r="J131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K131">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
         <v>109</v>
       </c>
@@ -3210,8 +3612,11 @@
       <c r="J132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K132">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>110</v>
       </c>
@@ -3230,8 +3635,11 @@
       <c r="J133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>112</v>
       </c>
@@ -3250,8 +3658,11 @@
       <c r="J134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>114</v>
       </c>
@@ -3267,13 +3678,16 @@
       <c r="J135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>116</v>
       </c>
@@ -3292,8 +3706,11 @@
       <c r="J137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>118</v>
       </c>
@@ -3312,8 +3729,11 @@
       <c r="J138">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K138">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>119</v>
       </c>
@@ -3329,8 +3749,11 @@
       <c r="J139">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K139">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>120</v>
       </c>
@@ -3346,8 +3769,11 @@
       <c r="J140">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K140">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>121</v>
       </c>
@@ -3363,8 +3789,11 @@
       <c r="J141">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K141">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>122</v>
       </c>
@@ -3380,8 +3809,11 @@
       <c r="J142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>123</v>
       </c>
@@ -3400,8 +3832,11 @@
       <c r="J143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>125</v>
       </c>
@@ -3420,8 +3855,11 @@
       <c r="J144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>127</v>
       </c>
@@ -3437,8 +3875,11 @@
       <c r="J145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K145">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>128</v>
       </c>
@@ -3457,8 +3898,11 @@
       <c r="J146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
         <v>130</v>
       </c>
@@ -3474,8 +3918,11 @@
       <c r="J147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
         <v>131</v>
       </c>
@@ -3491,8 +3938,11 @@
       <c r="J148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>132</v>
       </c>
@@ -3511,8 +3961,14 @@
       <c r="J149">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K149">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C150">
         <f>SUM(C2:C149)</f>
         <v>72.09999999999998</v>
@@ -3527,7 +3983,11 @@
       </c>
       <c r="J150">
         <f>SUM(J2:J149)</f>
-        <v>67.5</v>
+        <v>66.5</v>
+      </c>
+      <c r="K150">
+        <f>SUM(K2:K149)</f>
+        <v>64.5</v>
       </c>
     </row>
   </sheetData>
